--- a/biology/Origine et évolution du vivant/Open_Tree_of_Life/Open_Tree_of_Life.xlsx
+++ b/biology/Origine et évolution du vivant/Open_Tree_of_Life/Open_Tree_of_Life.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Open Tree of Life est un arbre phylogénétique en ligne résultant d'une collaboration financée par la Fondation nationale pour la science[1],[2]. Le premier projet, comprenant 2,3 millions d'espèces, a été publié en septembre 2015[3]. Le graphique interactif permet à l'utilisateur de zoomer sur les classifications taxonomiques, les arbres phylogénétiques et les informations sur un nœud. Cliquer sur une espèce renverra sa taxonomie source et de référence.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Open Tree of Life est un arbre phylogénétique en ligne résultant d'une collaboration financée par la Fondation nationale pour la science,. Le premier projet, comprenant 2,3 millions d'espèces, a été publié en septembre 2015. Le graphique interactif permet à l'utilisateur de zoomer sur les classifications taxonomiques, les arbres phylogénétiques et les informations sur un nœud. Cliquer sur une espèce renverra sa taxonomie source et de référence.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Approche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le projet utilise une approche supertree pour générer un seul arbre phylogénétique (servi sur tree.opentreeoflife.org[4]) à partir d'une taxonomie complète et d'un ensemble organisé d'estimations phylogénétiques publiées.
-La taxonomie est une combinaison de plusieurs grandes classifications développées par d'autres recherches et est créé à l'aide d'un outil logiciel appelé « smasher »[5]. La taxonomie résultante est appelée une taxonomie à arbre ouvert (OTT pour Open Tree Taxonomy) et peut être consultée en ligne[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet utilise une approche supertree pour générer un seul arbre phylogénétique (servi sur tree.opentreeoflife.org) à partir d'une taxonomie complète et d'un ensemble organisé d'estimations phylogénétiques publiées.
+La taxonomie est une combinaison de plusieurs grandes classifications développées par d'autres recherches et est créé à l'aide d'un outil logiciel appelé « smasher ». La taxonomie résultante est appelée une taxonomie à arbre ouvert (OTT pour Open Tree Taxonomy) et peut être consultée en ligne.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet a été lancé en juin 2012 par un prix NSF de trois ans décerné à des chercheurs de dix universités. En 2015, une bourse supplémentaire de deux ans a été décernée à des chercheurs de trois établissements.
 </t>
